--- a/Analysis/OneByOne AllCells PV_Mod FR PV Act_DeAct 6-100P/FR_VIP_PV_Mod.xlsx
+++ b/Analysis/OneByOne AllCells PV_Mod FR PV Act_DeAct 6-100P/FR_VIP_PV_Mod.xlsx
@@ -13,7 +13,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Act_6%</t>
+  </si>
+  <si>
+    <t>Act_12%</t>
+  </si>
+  <si>
+    <t>Act_18%</t>
+  </si>
+  <si>
+    <t>Act_25%</t>
+  </si>
+  <si>
+    <t>Act_50%</t>
+  </si>
+  <si>
+    <t>Act_75%</t>
+  </si>
+  <si>
+    <t>Act_100%</t>
+  </si>
+  <si>
+    <t>DeAct_6%</t>
+  </si>
+  <si>
+    <t>DeAct_12%</t>
+  </si>
+  <si>
+    <t>DeAct_18%</t>
+  </si>
+  <si>
+    <t>DeAct_25%</t>
+  </si>
+  <si>
+    <t>DeAct_50%</t>
+  </si>
+  <si>
+    <t>DeAct_75%</t>
+  </si>
+  <si>
+    <t>DeAct_100%</t>
+  </si>
+  <si>
+    <t>h_value</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -84,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,13 +144,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,18 +172,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -141,7 +194,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -152,7 +205,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -163,7 +216,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -174,7 +227,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -185,7 +238,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0">
         <v>1</v>
@@ -196,7 +249,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -207,7 +260,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0">
         <v>1</v>
@@ -218,7 +271,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -229,7 +282,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -240,7 +293,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -251,7 +304,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -262,7 +315,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -273,7 +326,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
